--- a/template/own_data_import.xlsx
+++ b/template/own_data_import.xlsx
@@ -30,7 +30,7 @@
     <t>性别</t>
   </si>
   <si>
-    <t>cookie ID</t>
+    <t>website</t>
   </si>
 </sst>
 </file>
